--- a/Datos/Database by set/Set with text box/Xlsx sets/Time Spiral Promos (PTSP).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Time Spiral Promos (PTSP).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,63 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lotus Bloom</t>
+          <t>('Lotus Bloom', ['Artifact', 'Suspend 3—{0} (Rather than cast this card from your hand, pay {0} and exile it with three time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)', '{T}, Sacrifice Lotus Bloom: Add three mana of any one color.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Suspend 3—{0} (Rather than cast this card from your hand, pay {0} and exile it with three time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice Lotus Bloom: Add three mana of any one color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sudden Shock</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Split second (As long as this spell is on the stack, players can’t cast spells or activate abilities that aren’t mana abilities.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sudden Shock deals 2 damage to any target.</t>
+          <t>('Sudden Shock', ['{1}{R}', 'Instant', 'Split second (As long as this spell is on the stack, players can’t cast spells or activate abilities that aren’t mana abilities.)', 'Sudden Shock deals 2 damage to any target.'])</t>
         </is>
       </c>
     </row>
